--- a/00_phylogenies/03_macrobes_phylogenies/Dataset_phylogenies.xlsx
+++ b/00_phylogenies/03_macrobes_phylogenies/Dataset_phylogenies.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11028"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4657884-C8FA-1340-9EEF-389E63DE692E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224B8166-B4DD-EA45-8F66-3715620DAC14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5720" yWindow="1260" windowWidth="27760" windowHeight="18880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2480" yWindow="760" windowWidth="27760" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="9" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="517">
   <si>
     <t>eight available plastid gene regions (matK, rbcL, trnV, ycf2, accD, rpl20, rpoB and rpoC1)</t>
   </si>
@@ -2676,6 +2676,9 @@
   <si>
     <t>Chazot et al. 2021 for secondary calibrations. New Erebia phylogeny could be used from here: https://www.science.org/doi/10.1126/sciadv.adl0989</t>
   </si>
+  <si>
+    <t>WEIRD TREE</t>
+  </si>
 </sst>
 </file>
 
@@ -2792,7 +2795,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2802,6 +2805,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2820,7 +2829,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2853,17 +2862,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2872,6 +2873,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -52528,11 +52530,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA28"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R28" sqref="R28"/>
+      <selection pane="bottomRight" activeCell="X17" sqref="X17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -53616,7 +53618,7 @@
       <c r="A14" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="25" t="s">
         <v>401</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -53685,7 +53687,9 @@
         <f t="shared" si="2"/>
         <v>45.945945945945951</v>
       </c>
-      <c r="X14" s="3"/>
+      <c r="X14" s="3" t="s">
+        <v>516</v>
+      </c>
       <c r="Y14" s="3" t="s">
         <v>89</v>
       </c>
@@ -53776,7 +53780,7 @@
       <c r="A16" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="25" t="s">
         <v>403</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -53845,7 +53849,9 @@
         <f t="shared" si="2"/>
         <v>57.999999999999993</v>
       </c>
-      <c r="X16" s="3"/>
+      <c r="X16" s="3" t="s">
+        <v>516</v>
+      </c>
       <c r="Y16" s="3" t="s">
         <v>119</v>
       </c>
@@ -54249,7 +54255,7 @@
         <f t="shared" si="2"/>
         <v>55.96153846153846</v>
       </c>
-      <c r="Y21" s="28" t="s">
+      <c r="Y21" s="22" t="s">
         <v>452</v>
       </c>
     </row>
@@ -54329,7 +54335,7 @@
       <c r="X22" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="Y22" s="28" t="s">
+      <c r="Y22" s="22" t="s">
         <v>459</v>
       </c>
     </row>
@@ -54409,7 +54415,7 @@
       <c r="X23" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="Y23" s="28" t="s">
+      <c r="Y23" s="22" t="s">
         <v>467</v>
       </c>
     </row>
@@ -54473,7 +54479,7 @@
       <c r="U24" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="V24" s="30"/>
+      <c r="V24" s="24"/>
       <c r="W24" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -54481,7 +54487,7 @@
       <c r="X24" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="Y24" s="28" t="s">
+      <c r="Y24" s="22" t="s">
         <v>479</v>
       </c>
       <c r="Z24" t="s">
@@ -54551,7 +54557,7 @@
       <c r="U25" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="V25" s="30"/>
+      <c r="V25" s="24"/>
       <c r="W25" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -54561,7 +54567,7 @@
       </c>
     </row>
     <row r="26" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="17" t="s">
         <v>491</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -54623,7 +54629,7 @@
       <c r="U26" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="V26" s="30"/>
+      <c r="V26" s="24"/>
       <c r="W26" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -54698,7 +54704,7 @@
       <c r="U27" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="V27" s="30">
+      <c r="V27" s="24">
         <v>728</v>
       </c>
       <c r="W27" s="8">
@@ -54802,12 +54808,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Y28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
-      <selection pane="bottomRight" activeCell="U25" sqref="U25"/>
+      <selection pane="bottomRight" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -54822,10 +54828,9 @@
     <col min="8" max="8" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.33203125" customWidth="1"/>
     <col min="10" max="10" width="11.83203125" customWidth="1"/>
-    <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="17" style="18" customWidth="1"/>
-    <col min="13" max="13" width="38.33203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="17" style="18" customWidth="1"/>
+    <col min="11" max="12" width="17" customWidth="1"/>
+    <col min="13" max="13" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="17" customWidth="1"/>
     <col min="16" max="16" width="15.83203125" customWidth="1"/>
     <col min="17" max="17" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.83203125" customWidth="1"/>
@@ -54871,16 +54876,16 @@
       <c r="K1" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="O1" s="10" t="s">
         <v>338</v>
       </c>
       <c r="P1" s="10" t="s">
@@ -54948,17 +54953,17 @@
       <c r="K2" s="6">
         <v>181</v>
       </c>
-      <c r="L2" s="19">
-        <f>(J2/K2)*100</f>
+      <c r="L2" s="16">
+        <f t="shared" ref="L2:L22" si="0">(J2/K2)*100</f>
         <v>50.276243093922659</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="M2" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="N2" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="O2" s="17">
+      <c r="O2" s="3">
         <v>55.2</v>
       </c>
       <c r="P2" s="3">
@@ -54967,8 +54972,8 @@
       <c r="Q2" s="3">
         <v>2178</v>
       </c>
-      <c r="R2" s="20">
-        <f>(P2/K2)*100</f>
+      <c r="R2" s="16">
+        <f t="shared" ref="R2:R22" si="1">(P2/K2)*100</f>
         <v>50.276243093922659</v>
       </c>
       <c r="S2" s="3" t="s">
@@ -54984,7 +54989,7 @@
         <v>2178</v>
       </c>
       <c r="W2" s="8">
-        <f>U2/K2*100</f>
+        <f t="shared" ref="W2:W18" si="2">U2/K2*100</f>
         <v>50.276243093922659</v>
       </c>
       <c r="X2" s="3"/>
@@ -55026,17 +55031,17 @@
       <c r="K3" s="6">
         <v>48</v>
       </c>
-      <c r="L3" s="19">
-        <f>(J3/K3)*100</f>
+      <c r="L3" s="16">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="M3" s="3" t="s">
         <v>342</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="O3" s="17">
+      <c r="O3" s="3">
         <v>34</v>
       </c>
       <c r="P3" s="3">
@@ -55045,8 +55050,8 @@
       <c r="Q3" s="3">
         <v>7070</v>
       </c>
-      <c r="R3" s="20">
-        <f>(P3/K3)*100</f>
+      <c r="R3" s="16">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="S3" s="3" t="s">
@@ -55062,7 +55067,7 @@
         <v>7070</v>
       </c>
       <c r="W3" s="8">
-        <f>U3/K3*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="X3" s="3" t="s">
@@ -55106,17 +55111,17 @@
       <c r="K4" s="6">
         <v>431</v>
       </c>
-      <c r="L4" s="19">
-        <f>(J4/K4)*100</f>
+      <c r="L4" s="16">
+        <f t="shared" si="0"/>
         <v>58.004640371229698</v>
       </c>
-      <c r="M4" s="17" t="s">
+      <c r="M4" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="N4" s="17" t="s">
+      <c r="N4" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="O4" s="17">
+      <c r="O4" s="3">
         <v>61</v>
       </c>
       <c r="P4" s="3">
@@ -55125,8 +55130,8 @@
       <c r="Q4" s="3">
         <v>16912</v>
       </c>
-      <c r="R4" s="20">
-        <f>(P4/K4)*100</f>
+      <c r="R4" s="16">
+        <f t="shared" si="1"/>
         <v>78.422273781902547</v>
       </c>
       <c r="S4" s="3" t="s">
@@ -55142,7 +55147,7 @@
         <v>16130</v>
       </c>
       <c r="W4" s="8">
-        <f>U4/K4*100</f>
+        <f t="shared" si="2"/>
         <v>58.004640371229698</v>
       </c>
       <c r="X4" s="3"/>
@@ -55184,17 +55189,17 @@
       <c r="K5" s="6">
         <v>97</v>
       </c>
-      <c r="L5" s="19">
-        <f>(J5/K5)*100</f>
+      <c r="L5" s="16">
+        <f t="shared" si="0"/>
         <v>72.164948453608247</v>
       </c>
-      <c r="M5" s="17" t="s">
+      <c r="M5" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="N5" s="17" t="s">
+      <c r="N5" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="O5" s="17">
+      <c r="O5" s="3">
         <v>91.2</v>
       </c>
       <c r="P5" s="3">
@@ -55203,8 +55208,8 @@
       <c r="Q5" s="3">
         <v>9004</v>
       </c>
-      <c r="R5" s="20">
-        <f>(P5/K5)*100</f>
+      <c r="R5" s="16">
+        <f t="shared" si="1"/>
         <v>72.164948453608247</v>
       </c>
       <c r="S5" s="3" t="s">
@@ -55220,7 +55225,7 @@
         <v>9004</v>
       </c>
       <c r="W5" s="8">
-        <f>U5/K5*100</f>
+        <f t="shared" si="2"/>
         <v>72.164948453608247</v>
       </c>
       <c r="X5" s="3"/>
@@ -55262,17 +55267,17 @@
       <c r="K6" s="6">
         <v>43</v>
       </c>
-      <c r="L6" s="19">
-        <f>(J6/K6)*100</f>
+      <c r="L6" s="16">
+        <f t="shared" si="0"/>
         <v>83.720930232558146</v>
       </c>
-      <c r="M6" s="17" t="s">
+      <c r="M6" s="3" t="s">
         <v>348</v>
       </c>
       <c r="N6" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="O6" s="17">
+      <c r="O6" s="3">
         <v>38.700000000000003</v>
       </c>
       <c r="P6" s="3">
@@ -55281,8 +55286,8 @@
       <c r="Q6" s="3">
         <v>10519</v>
       </c>
-      <c r="R6" s="20">
-        <f>(P6/K6)*100</f>
+      <c r="R6" s="16">
+        <f t="shared" si="1"/>
         <v>83.720930232558146</v>
       </c>
       <c r="S6" s="3" t="s">
@@ -55298,7 +55303,7 @@
         <v>10519</v>
       </c>
       <c r="W6" s="8">
-        <f>U6/K6*100</f>
+        <f t="shared" si="2"/>
         <v>83.720930232558146</v>
       </c>
       <c r="X6" s="3" t="s">
@@ -55342,17 +55347,17 @@
       <c r="K7" s="6">
         <v>30</v>
       </c>
-      <c r="L7" s="19">
-        <f>(J7/K7)*100</f>
+      <c r="L7" s="16">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="M7" s="17" t="s">
+      <c r="M7" s="3" t="s">
         <v>351</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="O7" s="17">
+      <c r="O7" s="3">
         <v>71.8</v>
       </c>
       <c r="P7" s="3">
@@ -55361,8 +55366,8 @@
       <c r="Q7" s="3">
         <v>211</v>
       </c>
-      <c r="R7" s="20">
-        <f>(P7/K7)*100</f>
+      <c r="R7" s="16">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="S7" s="3" t="s">
@@ -55378,7 +55383,7 @@
         <v>211</v>
       </c>
       <c r="W7" s="8">
-        <f>U7/K7*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="X7" s="3"/>
@@ -55420,17 +55425,17 @@
       <c r="K8" s="6">
         <v>138</v>
       </c>
-      <c r="L8" s="19">
-        <f>(J8/K8)*100</f>
+      <c r="L8" s="16">
+        <f t="shared" si="0"/>
         <v>81.884057971014485</v>
       </c>
-      <c r="M8" s="17" t="s">
+      <c r="M8" s="3" t="s">
         <v>356</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="O8" s="17">
+      <c r="O8" s="3">
         <v>54.7</v>
       </c>
       <c r="P8" s="3">
@@ -55439,8 +55444,8 @@
       <c r="Q8" s="3">
         <v>5638</v>
       </c>
-      <c r="R8" s="20">
-        <f>(P8/K8)*100</f>
+      <c r="R8" s="16">
+        <f t="shared" si="1"/>
         <v>99.275362318840578</v>
       </c>
       <c r="S8" s="3" t="s">
@@ -55456,7 +55461,7 @@
         <v>5573</v>
       </c>
       <c r="W8" s="8">
-        <f>U8/K8*100</f>
+        <f t="shared" si="2"/>
         <v>81.884057971014485</v>
       </c>
       <c r="X8" s="3"/>
@@ -55498,17 +55503,17 @@
       <c r="K9" s="6">
         <v>43</v>
       </c>
-      <c r="L9" s="19">
-        <f>(J9/K9)*100</f>
+      <c r="L9" s="16">
+        <f t="shared" si="0"/>
         <v>86.04651162790698</v>
       </c>
-      <c r="M9" s="17" t="s">
+      <c r="M9" s="3" t="s">
         <v>339</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="O9" s="17">
+      <c r="O9" s="3">
         <v>23.5</v>
       </c>
       <c r="P9" s="3">
@@ -55517,8 +55522,8 @@
       <c r="Q9" s="3">
         <v>1908</v>
       </c>
-      <c r="R9" s="20">
-        <f>(P9/K9)*100</f>
+      <c r="R9" s="16">
+        <f t="shared" si="1"/>
         <v>86.04651162790698</v>
       </c>
       <c r="S9" s="3" t="s">
@@ -55534,7 +55539,7 @@
         <v>1908</v>
       </c>
       <c r="W9" s="8">
-        <f>U9/K9*100</f>
+        <f t="shared" si="2"/>
         <v>86.04651162790698</v>
       </c>
       <c r="X9" s="3"/>
@@ -55576,17 +55581,17 @@
       <c r="K10" s="6">
         <v>31</v>
       </c>
-      <c r="L10" s="19">
-        <f>(J10/K10)*100</f>
+      <c r="L10" s="16">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="M10" s="17" t="s">
+      <c r="M10" s="3" t="s">
         <v>361</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="O10" s="17">
+      <c r="O10" s="3">
         <v>22.9</v>
       </c>
       <c r="P10" s="3">
@@ -55595,8 +55600,8 @@
       <c r="Q10" s="3">
         <v>4515</v>
       </c>
-      <c r="R10" s="20">
-        <f>(P10/K10)*100</f>
+      <c r="R10" s="16">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="S10" s="3" t="s">
@@ -55612,7 +55617,7 @@
         <v>4515</v>
       </c>
       <c r="W10" s="8">
-        <f>U10/K10*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="X10" s="3"/>
@@ -55652,17 +55657,17 @@
       <c r="K11" s="6">
         <v>23</v>
       </c>
-      <c r="L11" s="19">
-        <f>(J11/K11)*100</f>
+      <c r="L11" s="16">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="M11" s="17" t="s">
+      <c r="M11" s="3" t="s">
         <v>364</v>
       </c>
       <c r="N11" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="O11" s="17">
+      <c r="O11" s="3">
         <v>87</v>
       </c>
       <c r="P11" s="3">
@@ -55671,8 +55676,8 @@
       <c r="Q11" s="3">
         <v>5950</v>
       </c>
-      <c r="R11" s="20">
-        <f>(P11/K11)*100</f>
+      <c r="R11" s="16">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="S11" s="3" t="s">
@@ -55688,7 +55693,7 @@
         <v>5950</v>
       </c>
       <c r="W11" s="8">
-        <f>U11/K11*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="X11" s="3"/>
@@ -55730,17 +55735,17 @@
       <c r="K12" s="6">
         <v>12</v>
       </c>
-      <c r="L12" s="19">
-        <f>(J12/K12)*100</f>
+      <c r="L12" s="16">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="M12" s="17" t="s">
+      <c r="M12" s="3" t="s">
         <v>368</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="O12" s="17">
+      <c r="O12" s="3">
         <v>5.9</v>
       </c>
       <c r="P12" s="3">
@@ -55749,8 +55754,8 @@
       <c r="Q12" s="3">
         <v>2435</v>
       </c>
-      <c r="R12" s="20">
-        <f>(P12/K12)*100</f>
+      <c r="R12" s="16">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="S12" s="3" t="s">
@@ -55766,7 +55771,7 @@
         <v>2435</v>
       </c>
       <c r="W12" s="8">
-        <f>U12/K12*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="X12" s="3"/>
@@ -55808,17 +55813,17 @@
       <c r="K13" s="6">
         <v>59</v>
       </c>
-      <c r="L13" s="19">
-        <f>(J13/K13)*100</f>
+      <c r="L13" s="16">
+        <f t="shared" si="0"/>
         <v>69.491525423728817</v>
       </c>
-      <c r="M13" s="17" t="s">
+      <c r="M13" s="3" t="s">
         <v>372</v>
       </c>
       <c r="N13" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="O13" s="17">
+      <c r="O13" s="3">
         <v>23.1</v>
       </c>
       <c r="P13" s="3">
@@ -55827,8 +55832,8 @@
       <c r="Q13" s="3">
         <v>252201</v>
       </c>
-      <c r="R13" s="20">
-        <f>(P13/K13)*100</f>
+      <c r="R13" s="16">
+        <f t="shared" si="1"/>
         <v>72.881355932203391</v>
       </c>
       <c r="S13" s="3" t="s">
@@ -55844,7 +55849,7 @@
         <v>252134</v>
       </c>
       <c r="W13" s="8">
-        <f>U13/K13*100</f>
+        <f t="shared" si="2"/>
         <v>69.491525423728817</v>
       </c>
       <c r="X13" s="3"/>
@@ -55886,17 +55891,17 @@
       <c r="K14" s="6">
         <v>293</v>
       </c>
-      <c r="L14" s="19">
-        <f>(J14/K14)*100</f>
+      <c r="L14" s="16">
+        <f t="shared" si="0"/>
         <v>97.269624573378849</v>
       </c>
-      <c r="M14" s="17" t="s">
+      <c r="M14" s="3" t="s">
         <v>376</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="O14" s="17">
+      <c r="O14" s="3">
         <v>54.9</v>
       </c>
       <c r="P14" s="3">
@@ -55905,8 +55910,8 @@
       <c r="Q14" s="3">
         <v>21324</v>
       </c>
-      <c r="R14" s="20">
-        <f>(P14/K14)*100</f>
+      <c r="R14" s="16">
+        <f t="shared" si="1"/>
         <v>92.491467576791806</v>
       </c>
       <c r="S14" s="3" t="s">
@@ -55922,7 +55927,7 @@
         <v>19838</v>
       </c>
       <c r="W14" s="8">
-        <f>U14/K14*100</f>
+        <f t="shared" si="2"/>
         <v>87.030716723549489</v>
       </c>
       <c r="X14" s="3" t="s">
@@ -55966,17 +55971,17 @@
       <c r="K15" s="6">
         <v>15</v>
       </c>
-      <c r="L15" s="19">
-        <f>(J15/K15)*100</f>
+      <c r="L15" s="16">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="M15" s="17" t="s">
+      <c r="M15" s="3" t="s">
         <v>379</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="O15" s="17">
+      <c r="O15" s="3">
         <v>31.3</v>
       </c>
       <c r="P15" s="3">
@@ -55985,8 +55990,8 @@
       <c r="Q15" s="3">
         <v>19486</v>
       </c>
-      <c r="R15" s="20">
-        <f>(P15/K15)*100</f>
+      <c r="R15" s="16">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="S15" s="3" t="s">
@@ -56002,7 +56007,7 @@
         <v>19486</v>
       </c>
       <c r="W15" s="8">
-        <f>U15/K15*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="X15" s="3"/>
@@ -56044,17 +56049,17 @@
       <c r="K16" s="6">
         <v>19</v>
       </c>
-      <c r="L16" s="19">
-        <f>(J16/K16)*100</f>
+      <c r="L16" s="16">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="M16" s="17" t="s">
+      <c r="M16" s="3" t="s">
         <v>376</v>
       </c>
       <c r="N16" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="O16" s="17">
+      <c r="O16" s="3">
         <v>6</v>
       </c>
       <c r="P16" s="3">
@@ -56063,8 +56068,8 @@
       <c r="Q16" s="3">
         <v>687</v>
       </c>
-      <c r="R16" s="20">
-        <f>(P16/K16)*100</f>
+      <c r="R16" s="16">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="S16" s="3" t="s">
@@ -56080,7 +56085,7 @@
         <v>687</v>
       </c>
       <c r="W16" s="8">
-        <f>U16/K16*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="X16" s="3"/>
@@ -56122,17 +56127,17 @@
       <c r="K17" s="6">
         <v>58</v>
       </c>
-      <c r="L17" s="19">
-        <f>(J17/K17)*100</f>
+      <c r="L17" s="16">
+        <f t="shared" si="0"/>
         <v>79.310344827586206</v>
       </c>
-      <c r="M17" s="17" t="s">
+      <c r="M17" s="3" t="s">
         <v>384</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="O17" s="17">
+      <c r="O17" s="3">
         <v>28.2</v>
       </c>
       <c r="P17" s="3">
@@ -56141,8 +56146,8 @@
       <c r="Q17" s="3">
         <v>101849</v>
       </c>
-      <c r="R17" s="20">
-        <f>(P17/K17)*100</f>
+      <c r="R17" s="16">
+        <f t="shared" si="1"/>
         <v>91.379310344827587</v>
       </c>
       <c r="S17" s="3" t="s">
@@ -56158,7 +56163,7 @@
         <v>101788</v>
       </c>
       <c r="W17" s="8">
-        <f>U17/K17*100</f>
+        <f t="shared" si="2"/>
         <v>75.862068965517238</v>
       </c>
       <c r="X17" s="3"/>
@@ -56200,17 +56205,17 @@
       <c r="K18" s="6">
         <v>20</v>
       </c>
-      <c r="L18" s="19">
-        <f>(J18/K18)*100</f>
+      <c r="L18" s="16">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="M18" s="17" t="s">
+      <c r="M18" s="3" t="s">
         <v>387</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="O18" s="17">
+      <c r="O18" s="3">
         <v>60.2</v>
       </c>
       <c r="P18" s="3">
@@ -56219,8 +56224,8 @@
       <c r="Q18" s="3">
         <v>187</v>
       </c>
-      <c r="R18" s="20">
-        <f>(P18/K18)*100</f>
+      <c r="R18" s="16">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="S18" s="3" t="s">
@@ -56236,7 +56241,7 @@
         <v>187</v>
       </c>
       <c r="W18" s="8">
-        <f>U18/K18*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="X18" s="3"/>
@@ -56244,7 +56249,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="19" spans="1:25" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" s="17" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="D19" s="3" t="s">
         <v>428</v>
       </c>
@@ -56266,20 +56271,20 @@
       <c r="J19" s="9">
         <v>9993</v>
       </c>
-      <c r="K19" s="26">
+      <c r="K19" s="20">
         <v>9993</v>
       </c>
-      <c r="L19" s="19">
-        <f>(J19/K19)*100</f>
+      <c r="L19" s="16">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="M19" s="17" t="s">
+      <c r="M19" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="N19" s="17" t="s">
+      <c r="N19" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="O19" s="17">
+      <c r="O19" s="3">
         <v>110</v>
       </c>
       <c r="P19" s="3">
@@ -56288,240 +56293,214 @@
       <c r="Q19" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="R19" s="20">
-        <f>(P19/K19)*100</f>
+      <c r="R19" s="16">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="W19" s="8">
-        <f t="shared" ref="W19:W22" si="0">U19/K19*100</f>
+        <f t="shared" ref="W19:W22" si="3">U19/K19*100</f>
         <v>0</v>
       </c>
-      <c r="X19" s="21" t="s">
+      <c r="X19" s="17" t="s">
         <v>434</v>
       </c>
       <c r="Y19" s="3" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="20" spans="1:25" s="21" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="D20" s="22" t="s">
+    <row r="20" spans="1:25" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="D20" s="18" t="s">
         <v>437</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="18" t="s">
         <v>438</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="F20" s="18" t="s">
         <v>439</v>
       </c>
-      <c r="G20" s="21" t="s">
+      <c r="G20" s="17" t="s">
         <v>429</v>
       </c>
-      <c r="H20" s="21" t="s">
+      <c r="H20" s="17" t="s">
         <v>429</v>
       </c>
-      <c r="I20" s="21" t="s">
+      <c r="I20" s="17" t="s">
         <v>440</v>
       </c>
-      <c r="J20" s="21">
+      <c r="J20" s="17">
         <v>6885</v>
       </c>
-      <c r="K20" s="27">
+      <c r="K20" s="21">
         <v>10757</v>
       </c>
-      <c r="L20" s="23">
-        <f>(J20/K20)*100</f>
+      <c r="L20" s="19">
+        <f t="shared" si="0"/>
         <v>64.004834061541331</v>
       </c>
-      <c r="M20" s="24" t="s">
+      <c r="M20" s="17" t="s">
         <v>436</v>
       </c>
-      <c r="N20" s="22" t="s">
+      <c r="N20" s="18" t="s">
         <v>437</v>
       </c>
-      <c r="O20" s="24">
+      <c r="O20" s="17">
         <v>213.2</v>
       </c>
-      <c r="P20" s="21">
+      <c r="P20" s="17">
         <v>6885</v>
       </c>
-      <c r="Q20" s="21" t="s">
+      <c r="Q20" s="17" t="s">
         <v>433</v>
       </c>
-      <c r="R20" s="25">
-        <f>(P20/K20)*100</f>
+      <c r="R20" s="19">
+        <f t="shared" si="1"/>
         <v>64.004834061541331</v>
       </c>
       <c r="W20" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X20" s="17" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" s="17" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="D21" s="17" t="s">
+        <v>442</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>443</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>444</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>429</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>429</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>430</v>
+      </c>
+      <c r="J21" s="17">
+        <v>4705</v>
+      </c>
+      <c r="K21" s="17">
+        <v>5983</v>
+      </c>
+      <c r="L21" s="19">
         <f t="shared" si="0"/>
+        <v>78.63947852248036</v>
+      </c>
+      <c r="M21" s="17" t="s">
+        <v>445</v>
+      </c>
+      <c r="N21" s="17" t="s">
+        <v>442</v>
+      </c>
+      <c r="O21" s="17">
+        <v>202</v>
+      </c>
+      <c r="P21" s="17">
+        <v>4705</v>
+      </c>
+      <c r="Q21" s="17" t="s">
+        <v>433</v>
+      </c>
+      <c r="R21" s="19">
+        <f t="shared" si="1"/>
+        <v>78.63947852248036</v>
+      </c>
+      <c r="W21" s="8">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X20" s="21" t="s">
+      <c r="X21" s="17" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="21" spans="1:25" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="D21" s="21" t="s">
-        <v>442</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>443</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>444</v>
-      </c>
-      <c r="G21" s="21" t="s">
-        <v>429</v>
-      </c>
-      <c r="H21" s="21" t="s">
-        <v>429</v>
-      </c>
-      <c r="I21" s="21" t="s">
-        <v>430</v>
-      </c>
-      <c r="J21" s="21">
-        <v>4705</v>
-      </c>
-      <c r="K21" s="21">
-        <v>5983</v>
-      </c>
-      <c r="L21" s="23">
-        <f>(J21/K21)*100</f>
-        <v>78.63947852248036</v>
-      </c>
-      <c r="M21" s="24" t="s">
-        <v>445</v>
-      </c>
-      <c r="N21" s="21" t="s">
-        <v>442</v>
-      </c>
-      <c r="O21" s="24">
-        <v>202</v>
-      </c>
-      <c r="P21" s="21">
-        <v>4705</v>
-      </c>
-      <c r="Q21" s="21" t="s">
-        <v>433</v>
-      </c>
-      <c r="R21" s="25">
-        <f>(P21/K21)*100</f>
-        <v>78.63947852248036</v>
-      </c>
-      <c r="W21" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X21" s="21" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" s="17" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="D22" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="E22" s="17" t="s">
         <v>490</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="F22" s="17" t="s">
         <v>498</v>
       </c>
-      <c r="G22" s="21" t="s">
+      <c r="G22" s="17" t="s">
         <v>499</v>
       </c>
-      <c r="H22" s="29" t="s">
+      <c r="H22" s="23" t="s">
         <v>500</v>
       </c>
-      <c r="I22" s="21" t="s">
+      <c r="I22" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="J22" s="21">
+      <c r="J22" s="17">
         <v>83</v>
       </c>
-      <c r="K22" s="21">
+      <c r="K22" s="17">
         <v>95</v>
       </c>
-      <c r="L22" s="23">
-        <f>(J22/K22)*100</f>
-        <v>87.368421052631589</v>
-      </c>
-      <c r="M22" s="24" t="s">
-        <v>501</v>
-      </c>
-      <c r="N22" s="24" t="s">
-        <v>502</v>
-      </c>
-      <c r="O22" s="24">
-        <v>22.4</v>
-      </c>
-      <c r="P22" s="21">
-        <v>83</v>
-      </c>
-      <c r="Q22" s="21">
-        <v>25694</v>
-      </c>
-      <c r="R22" s="25">
-        <f>(P22/K22)*100</f>
-        <v>87.368421052631589</v>
-      </c>
-      <c r="T22" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="U22" s="27">
-        <v>83</v>
-      </c>
-      <c r="V22" s="21">
-        <v>25457</v>
-      </c>
-      <c r="W22" s="8">
+      <c r="L22" s="19">
         <f t="shared" si="0"/>
         <v>87.368421052631589</v>
       </c>
-      <c r="X22" s="21" t="s">
+      <c r="M22" s="17" t="s">
+        <v>501</v>
+      </c>
+      <c r="N22" s="17" t="s">
+        <v>502</v>
+      </c>
+      <c r="O22" s="17">
+        <v>22.4</v>
+      </c>
+      <c r="P22" s="17">
+        <v>83</v>
+      </c>
+      <c r="Q22" s="17">
+        <v>25694</v>
+      </c>
+      <c r="R22" s="19">
+        <f t="shared" si="1"/>
+        <v>87.368421052631589</v>
+      </c>
+      <c r="T22" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="U22" s="21">
+        <v>83</v>
+      </c>
+      <c r="V22" s="17">
+        <v>25457</v>
+      </c>
+      <c r="W22" s="8">
+        <f t="shared" si="3"/>
+        <v>87.368421052631589</v>
+      </c>
+      <c r="X22" s="17" t="s">
         <v>515</v>
       </c>
-      <c r="Y22" s="28" t="s">
+      <c r="Y22" s="22" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="23" spans="1:25" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="L23" s="23"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="R23" s="25"/>
-    </row>
-    <row r="24" spans="1:25" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="R24" s="25"/>
-    </row>
-    <row r="25" spans="1:25" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="R25" s="25"/>
-    </row>
-    <row r="26" spans="1:25" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-    </row>
-    <row r="27" spans="1:25" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-    </row>
-    <row r="28" spans="1:25" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24"/>
-    </row>
+    <row r="23" spans="1:25" s="17" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="L23" s="19"/>
+      <c r="R23" s="19"/>
+    </row>
+    <row r="24" spans="1:25" s="17" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="R24" s="19"/>
+    </row>
+    <row r="25" spans="1:25" s="17" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="R25" s="19"/>
+    </row>
+    <row r="26" spans="1:25" s="17" customFormat="1" ht="16" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:25" s="17" customFormat="1" ht="16" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:25" s="17" customFormat="1" ht="16" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00_phylogenies/03_macrobes_phylogenies/Dataset_phylogenies.xlsx
+++ b/00_phylogenies/03_macrobes_phylogenies/Dataset_phylogenies.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11028"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224B8166-B4DD-EA45-8F66-3715620DAC14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06D90DE-CD8F-2249-9F2F-833910BFB8FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2480" yWindow="760" windowWidth="27760" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="9" r:id="rId1"/>
@@ -52531,10 +52531,10 @@
   <dimension ref="A1:AA28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X17" sqref="X17"/>
+      <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -54813,7 +54813,7 @@
       <selection activeCell="D1" sqref="D1"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
-      <selection pane="bottomRight" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomRight" activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
